--- a/out/BPI12/results/result_2/prova_2.0_linux.xlsx
+++ b/out/BPI12/results/result_2/prova_2.0_linux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/result_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F1F54-FE24-3C42-9731-9FC277E1A0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0731105-B6A6-412A-8CE2-0186A8F2AB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{3625BA4A-712E-4002-8E62-8B65F786F320}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3625BA4A-712E-4002-8E62-8B65F786F320}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>AACCEPTED</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>scartate</t>
   </si>
 </sst>
 </file>
@@ -628,21 +631,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C0713-5F36-42B7-8D4B-EC8B61565363}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="11.77734375" customWidth="1"/>
+    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,15 +710,18 @@
       <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
@@ -778,12 +785,15 @@
         <f t="shared" ref="W2:W21" si="0">SUM(B2:U2)</f>
         <v>1</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2">
+        <v>1726</v>
+      </c>
+      <c r="Z2" s="22">
         <f>1-B2/W2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -851,12 +861,15 @@
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3">
+        <v>2208</v>
+      </c>
+      <c r="Z3" s="22">
         <f>1-C3/W3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -924,12 +937,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4">
+        <v>1684</v>
+      </c>
+      <c r="Z4" s="22">
         <f>1-D4/W4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -997,12 +1013,15 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5">
+        <v>2161</v>
+      </c>
+      <c r="Z5" s="22">
         <f>1-E5/W5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1070,12 +1089,15 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6">
+        <v>2131</v>
+      </c>
+      <c r="Z6" s="22">
         <f>1-F6/W6</f>
         <v>0.91558441558441561</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1143,12 +1165,15 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7">
+        <v>8118</v>
+      </c>
+      <c r="Z7" s="22">
         <f>1-G7/W7</f>
         <v>0.5092592592592593</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1216,12 +1241,15 @@
         <f t="shared" si="0"/>
         <v>1169</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8">
+        <v>5546</v>
+      </c>
+      <c r="Z8" s="22">
         <f>1-H8/W8</f>
         <v>0.20872540633019676</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1289,12 +1317,15 @@
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9">
+        <v>934</v>
+      </c>
+      <c r="Z9" s="22">
         <f>1-I9/W9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1362,12 +1393,15 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10">
+        <v>282</v>
+      </c>
+      <c r="Z10" s="22">
         <f>1-J10/W10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1435,12 +1469,15 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11">
+        <v>293</v>
+      </c>
+      <c r="Z11" s="22">
         <f>1-K11/W11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1508,12 +1545,15 @@
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12">
+        <v>318</v>
+      </c>
+      <c r="Z12" s="22">
         <f>1-L12/W12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1581,12 +1621,15 @@
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13">
+        <v>274</v>
+      </c>
+      <c r="Z13" s="22">
         <f>1-M13/W13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1654,12 +1697,15 @@
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14">
+        <v>1240</v>
+      </c>
+      <c r="Z14" s="22">
         <f>1-N14/W14</f>
         <v>0.59512761020881677</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1727,12 +1773,15 @@
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15">
+        <v>800</v>
+      </c>
+      <c r="Z15" s="22">
         <f>1-O15/W15</f>
         <v>0.90073529411764708</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1800,12 +1849,15 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="X16" s="22">
+      <c r="X16">
+        <v>2327</v>
+      </c>
+      <c r="Z16" s="22">
         <f>1-P16/W16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1873,12 +1925,15 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="X17" s="22">
+      <c r="X17">
+        <v>650</v>
+      </c>
+      <c r="Z17" s="22">
         <f>1-Q17/W17</f>
         <v>0.89436619718309862</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -1946,12 +2001,15 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="X18" s="22">
+      <c r="X18">
+        <v>150</v>
+      </c>
+      <c r="Z18" s="22">
         <f>1-R18/W18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2019,12 +2077,15 @@
         <f t="shared" si="0"/>
         <v>1861</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19">
+        <v>1102</v>
+      </c>
+      <c r="Z19" s="22">
         <f>1-S19/W19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2092,12 +2153,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="X20" s="22">
+      <c r="X20">
+        <v>81</v>
+      </c>
+      <c r="Z20" s="22">
         <f>1-T20/W20</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2165,12 +2229,15 @@
         <f t="shared" si="0"/>
         <v>492</v>
       </c>
-      <c r="X21" s="22">
+      <c r="X21">
+        <v>3269</v>
+      </c>
+      <c r="Z21" s="22">
         <f>1-U21/W21</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2258,8 +2325,12 @@
         <f>SUM(W2:W21)</f>
         <v>6799</v>
       </c>
+      <c r="X23">
+        <f>SUM(X2:X21)</f>
+        <v>35294</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2348,7 +2419,7 @@
         <v>0.47712898955728783</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2437,7 +2508,7 @@
         <v>0.41098174303111079</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2526,7 +2597,7 @@
         <v>0.44159201456201014</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +2606,7 @@
         <v>0.15328882943447789</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
